--- a/biology/Médecine/George_Goodheart/George_Goodheart.xlsx
+++ b/biology/Médecine/George_Goodheart/George_Goodheart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Joseph Goodheart (1918 - 2008)[1] est un chiropracteur, notamment connu pour son travail concernant la kinésiologie appliquée dans les années 1960.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Joseph Goodheart (1918 - 2008) est un chiropracteur, notamment connu pour son travail concernant la kinésiologie appliquée dans les années 1960.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Goodheart a servi dans les Forces Aériennes de l'Armée des États-Unis (US Air Force) pendant la Seconde Guerre mondiale, en France et en Angleterre, avec le grade de major, obtenant la Bronze Star[2].
-Après la guerre, il étudie à l'université de Détroit et au National College of Chiropractic de Chicago, où il obtient un diplôme de chiropracteur en 1939[3]. 
-En 1979 Goodheart accompagna la US Olympic team à Lake Placid, New York, aux XIIIth Olympic Winter Games en tant que premier chiropracteur olympique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Goodheart a servi dans les Forces Aériennes de l'Armée des États-Unis (US Air Force) pendant la Seconde Guerre mondiale, en France et en Angleterre, avec le grade de major, obtenant la Bronze Star.
+Après la guerre, il étudie à l'université de Détroit et au National College of Chiropractic de Chicago, où il obtient un diplôme de chiropracteur en 1939. 
+En 1979 Goodheart accompagna la US Olympic team à Lake Placid, New York, aux XIIIth Olympic Winter Games en tant que premier chiropracteur olympique.
 Pendant plus de trente ans, il exercera sa profession avec son père, George Goodhearth, à Détroit. Par la suite, il se déplacera à Grosse Pointe, où il étudiera les muscles et la santé en général, ce qui le conduira finalement à la kinésiologie appliquée.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">manuel
 Applied Kinesiology Research Manuals (publié chaque année 1964–2012)
@@ -584,9 +600,11 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les articles suivants ont été publiés dans Chiropractic Economics magazine[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les articles suivants ont été publiés dans Chiropractic Economics magazine :
 Urinary testing methods 7(1);July/Aug 1964:14
 Arm and shoulder pain 7(2);Sept/Oct 1964:22-25
 The anemias 7(3); Nov/Dec 1964:32-33
@@ -638,11 +656,11 @@
 The limbic technic 31(2);Sep/Oct 1988:22-31
 Applied kinesiology - the beginning 31(6);May/Jun 1989:15-23
 Do herniated discs produce pain? 34(5);Mar-Apr 1992:14-22
-The following articles were published in Today’s Chiropractic magazine[5]:
+The following articles were published in Today’s Chiropractic magazine:
 Structural imbalance and nutritional absorption 16(1);Mar/Apr 1987:19-24
 Combating a vitamin B deficiency 17(2);Mar/Apr 1988: 19-22
 The applied kinesiology technique 22(4);Jul/Aug 1993:56-58
-The following articles were published in The American Chiropractor magazine[5]:
+The following articles were published in The American Chiropractor magazine:
 Managing lactic acid excess Sep 1989:48-52
 Structural imbalance and nutritional absorption Oct 1989:40-44</t>
         </is>
